--- a/Repeat over not selcted options.xlsx
+++ b/Repeat over not selcted options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexThomson\Dropbox (SSD)\TPP Questionnaire ODK\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stats4sd-my.sharepoint.com/personal/alex_thomson_stats4sd_org/Documents/ODK Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080E4EDC-07B6-4C89-9502-AD10DE80F117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{080E4EDC-07B6-4C89-9502-AD10DE80F117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{56CB0964-63D2-49A5-8761-67C6D1DC9AB2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{1B59B8E9-902C-4675-BAFC-F0B988D9479A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{1B59B8E9-902C-4675-BAFC-F0B988D9479A}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>type</t>
   </si>
@@ -95,30 +95,15 @@
     <t>uuid()</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>allow_choice_duplicates</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>select_multiple AE_practices</t>
-  </si>
-  <si>
     <t>AE_practices</t>
   </si>
   <si>
-    <t>Aenote</t>
-  </si>
-  <si>
-    <t>selected: ${AE_practices}</t>
-  </si>
-  <si>
     <t>practice 1</t>
   </si>
   <si>
@@ -179,72 +164,6 @@
     <t>practice_10</t>
   </si>
   <si>
-    <t>begin repeat</t>
-  </si>
-  <si>
-    <t>practice_list</t>
-  </si>
-  <si>
-    <t>practice_pos</t>
-  </si>
-  <si>
-    <t>practice_id</t>
-  </si>
-  <si>
-    <t>end repeat</t>
-  </si>
-  <si>
-    <t>position(..)</t>
-  </si>
-  <si>
-    <t>selected-at(${practice_list}, ${practice_pos} -1)</t>
-  </si>
-  <si>
-    <t>practice_ns_name</t>
-  </si>
-  <si>
-    <t>not_selected_practices</t>
-  </si>
-  <si>
-    <t>repeat</t>
-  </si>
-  <si>
-    <t>join(' ', ${practice_ns_name})</t>
-  </si>
-  <si>
-    <t>ns_note</t>
-  </si>
-  <si>
-    <t>"practice_1 practice_2 practice_3 practice_4 practice_5  practice_6 practice_7 practice_8 practice_9 practice_10"</t>
-  </si>
-  <si>
-    <t>if(selected(${AE_practices}, ${practice_id}), '', ${practice_id})</t>
-  </si>
-  <si>
-    <t>not selected: ${not_selected_practices}</t>
-  </si>
-  <si>
-    <t>ns_pos</t>
-  </si>
-  <si>
-    <t>ns_id</t>
-  </si>
-  <si>
-    <t>ns_name</t>
-  </si>
-  <si>
-    <t>count-selected(${not_selected_practices})</t>
-  </si>
-  <si>
-    <t>selected-at(${not_selected_practices}, ${ns_pos}-1)</t>
-  </si>
-  <si>
-    <t>jr:choice-name(${ns_id}, '${AE_practices}')</t>
-  </si>
-  <si>
-    <t>select_multiple reasons</t>
-  </si>
-  <si>
     <t>reasons</t>
   </si>
   <si>
@@ -308,49 +227,13 @@
     <t>reason 10</t>
   </si>
   <si>
-    <t>not_practiced_reasons</t>
-  </si>
-  <si>
-    <t>Why do you not practice ${ns_name}</t>
-  </si>
-  <si>
-    <t>Which of these agroecological methods do you practice?</t>
-  </si>
-  <si>
-    <t>repeat2</t>
-  </si>
-  <si>
-    <t>In some way bring in a space separate list of all possible answer choices. Could be written out or pulled in from a csv if the answers can vary by some filter.</t>
-  </si>
-  <si>
-    <t>Set the repeat count to the maximum number of answer choices</t>
-  </si>
-  <si>
-    <t>count-selected(${practice_list})</t>
-  </si>
-  <si>
-    <t>Get the index of this repeat group</t>
-  </si>
-  <si>
-    <t>Use that number to pick out the nth option from the list of all the options</t>
-  </si>
-  <si>
-    <t>If this answer was selected in the original question then this variable will be empty. If not it will be equal to its name</t>
-  </si>
-  <si>
-    <t>Join all of the practices which were not selected into a space seperated list which can now be treated in the same way as any variable from a multiple select</t>
-  </si>
-  <si>
-    <t>Can now repeat over the answers which were NOT originally selected</t>
-  </si>
-  <si>
-    <t>Can even pull out the choice labels for the answers which werent chosen</t>
-  </si>
-  <si>
     <t>Example - repeat over not selected options</t>
   </si>
   <si>
     <t>example3</t>
+  </si>
+  <si>
+    <t>numbers</t>
   </si>
 </sst>
 </file>
@@ -790,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E7D873-2746-405F-A900-76854FB243C9}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +691,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -825,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -833,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -841,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -849,193 +732,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -1085,222 +788,222 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1360,28 +1063,28 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="4" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2103161654</v>
+        <v>2104301124</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
